--- a/notebook/notebackup备份说明_汇总.xlsx
+++ b/notebook/notebackup备份说明_汇总.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A35DFF4-BE62-4A29-BAAA-074E718DCB6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFBBF8F-1096-41E8-A171-F0C8CEAEC993}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2175" windowWidth="18780" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notebackup3" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
   <si>
     <t>office365</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,18 @@
   </si>
   <si>
     <t>xmanager5激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W,136angfeng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA插件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1691,7 +1703,26 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C71" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="6" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/notebackup备份说明_汇总.xlsx
+++ b/notebook/notebackup备份说明_汇总.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFBBF8F-1096-41E8-A171-F0C8CEAEC993}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA35F5E-D3EA-4A1C-AAB8-EA686CBC89E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2175" windowWidth="18780" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="notebackup3" sheetId="1" r:id="rId1"/>
-    <sheet name="notebackup1" sheetId="3" r:id="rId2"/>
-    <sheet name="notebackup2" sheetId="4" r:id="rId3"/>
+    <sheet name="notebackup3" sheetId="5" r:id="rId1"/>
+    <sheet name="notebackup2" sheetId="1" r:id="rId2"/>
+    <sheet name="notebackup1" sheetId="3" r:id="rId3"/>
     <sheet name="备份前的检查" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="136">
   <si>
     <t>office365</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安装VS2017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安装GIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,13 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安装git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\wf_program\Git</t>
-  </si>
-  <si>
     <t>安装VS2017企业版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,14 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>升级城通网盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MFC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xmanager5激活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,6 +512,54 @@
   </si>
   <si>
     <t>VA插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43064-&gt;43086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC,CLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq五笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win7兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winrar5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easyconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统1809稳定使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不更新1903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite expert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS2017_15.9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级SDK版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,14 +605,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -617,15 +634,15 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE68EA74-5D74-4E4E-8DE2-F5DA41153172}">
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:C74"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1277,7 +1294,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="1">
@@ -1291,7 +1308,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1">
         <v>43590</v>
       </c>
@@ -1306,7 +1323,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1">
         <v>43590</v>
       </c>
@@ -1318,7 +1335,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="1">
         <v>43590</v>
       </c>
@@ -1327,7 +1344,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1">
         <v>43590</v>
       </c>
@@ -1336,7 +1353,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1">
         <v>43590</v>
       </c>
@@ -1345,7 +1362,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1">
         <v>43590</v>
       </c>
@@ -1354,7 +1371,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1">
         <v>43590</v>
       </c>
@@ -1366,7 +1383,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="1">
         <v>43591</v>
       </c>
@@ -1378,7 +1395,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="5">
         <v>43591</v>
       </c>
@@ -1393,7 +1410,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="5">
         <v>43591</v>
       </c>
@@ -1404,7 +1421,7 @@
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="5">
         <v>43591</v>
       </c>
@@ -1416,7 +1433,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="5">
         <v>43591</v>
       </c>
@@ -1428,7 +1445,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="5">
         <v>43594</v>
       </c>
@@ -1441,7 +1458,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="5">
         <v>43594</v>
       </c>
@@ -1454,7 +1471,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="5">
         <v>43594</v>
       </c>
@@ -1467,7 +1484,7 @@
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="5">
         <v>43594</v>
       </c>
@@ -1480,7 +1497,7 @@
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="5">
         <v>43594</v>
       </c>
@@ -1492,7 +1509,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="5">
         <v>43594</v>
       </c>
@@ -1501,7 +1518,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="5">
         <v>43594</v>
       </c>
@@ -1514,7 +1531,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="B54" s="5">
         <v>43594</v>
@@ -1641,7 +1658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="1">
         <v>43604</v>
@@ -1650,87 +1667,161 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="1">
         <v>43604</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="1">
         <v>43604</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>120</v>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="10">
+        <v>43624</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="6" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="6" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="D74" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="8"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="10">
+        <v>43635</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="8"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="8"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A54:A80"/>
     <mergeCell ref="A2:A33"/>
+    <mergeCell ref="A34:A53"/>
     <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A34:A53"/>
-    <mergeCell ref="A54:A67"/>
+    <mergeCell ref="B68:B76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1739,6 +1830,876 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="43.375" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>20190415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>20190415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43578.739224537036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="1">
+        <v>43585</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="1">
+        <v>43585</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="1">
+        <v>43585</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43590</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="1">
+        <v>43590</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35">
+        <v>430.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="1">
+        <v>43590</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="1">
+        <v>43590</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="1">
+        <v>43590</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="1">
+        <v>43590</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="1">
+        <v>43590</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="1">
+        <v>43590</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5">
+        <v>43591</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="5">
+        <v>43591</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="5">
+        <v>43591</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="5">
+        <v>43591</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="5">
+        <v>43594</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="5">
+        <v>43594</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="5">
+        <v>43594</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="5">
+        <v>43594</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="5">
+        <v>43594</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="5">
+        <v>43594</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
+      <c r="B53" s="5">
+        <v>43594</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="5">
+        <v>43594</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="5">
+        <v>43596</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="5">
+        <v>43596</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+      <c r="B57" s="5">
+        <v>43596</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="5">
+        <v>43596</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="5">
+        <v>43596</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="5">
+        <v>43596</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="5">
+        <v>43596</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="5">
+        <v>43596</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
+      <c r="B63" s="5">
+        <v>43596</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
+      <c r="B64" s="5">
+        <v>43596</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
+      <c r="B65" s="1">
+        <v>43604</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="1">
+        <v>43604</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
+      <c r="B67" s="1">
+        <v>43604</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="10">
+        <v>43624</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="8"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A34:A53"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="A54:A76"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6AE0A7-92B6-479C-9EC7-B96AC4F7D606}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -1756,7 +2717,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1923,771 +2884,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF46B50-BF4F-4A93-8391-0108BB5C1A4A}">
-  <dimension ref="A1:E67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="43.375" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>20190415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>20190415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="4">
-        <v>43578.739224537036</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="1">
-        <v>43584</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="1">
-        <v>43585</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="1">
-        <v>43585</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="1">
-        <v>43585</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="1">
-        <v>43590</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="1">
-        <v>43590</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35">
-        <v>430.39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="1">
-        <v>43590</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="1">
-        <v>43590</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="1">
-        <v>43590</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="1">
-        <v>43590</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="1">
-        <v>43590</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="1">
-        <v>43590</v>
-      </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="1">
-        <v>43591</v>
-      </c>
-      <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="5">
-        <v>43591</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="5">
-        <v>43591</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="5">
-        <v>43591</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="5">
-        <v>43591</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="5">
-        <v>43591</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="1">
-        <v>43591</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="5">
-        <v>43594</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="5">
-        <v>43594</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="5">
-        <v>43594</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="5">
-        <v>43594</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="5">
-        <v>43594</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="5">
-        <v>43594</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="5">
-        <v>43594</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="5">
-        <v>43594</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="5">
-        <v>43596</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="5">
-        <v>43596</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="5">
-        <v>43596</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="5">
-        <v>43596</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="5">
-        <v>43596</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="5">
-        <v>43596</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="5">
-        <v>43596</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="5">
-        <v>43596</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="5">
-        <v>43596</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="5">
-        <v>43596</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C66" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C67" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="C48:C49"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
